--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Document of test_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Document of test_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1064,6 +1061,9 @@
 - Title is centered
 - All items is left-aligned
 - Text's color is black</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3057,6 +3057,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3074,27 +3095,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6235,8 +6235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6255,14 +6255,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6277,12 +6277,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6294,12 +6294,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6308,28 +6308,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="111" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+      <c r="C6" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="110"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6352,10 +6352,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6371,12 +6371,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6385,13 +6385,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6399,8 +6399,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6408,8 +6408,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6417,8 +6417,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6426,8 +6426,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6435,8 +6435,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6444,12 +6444,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6457,6 +6451,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6472,7 +6472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6666,7 +6666,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
@@ -6694,20 +6694,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -6722,7 +6722,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6752,7 +6752,7 @@
       <c r="D13" s="60"/>
       <c r="E13" s="61"/>
       <c r="F13" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -6771,7 +6771,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6783,10 +6783,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>145</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6798,7 +6798,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6817,7 +6817,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6829,22 +6829,22 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="62" t="s">
         <v>149</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="61"/>
       <c r="F17" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
@@ -6857,13 +6857,13 @@
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6875,10 +6875,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="62" t="s">
         <v>155</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1">
@@ -7975,7 +7975,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
